--- a/论文/矩阵等表格转换.xlsx
+++ b/论文/矩阵等表格转换.xlsx
@@ -1,31 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C2E027-0C6D-450D-9B43-3CFC2F130EFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1485" yWindow="3105" windowWidth="14625" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+  <si>
+    <t>C-O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,15 +103,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +418,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="H11:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="11" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1991</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1998</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2008</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="K19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="2">
+        <f>1/K19</f>
+        <v>0.25</v>
+      </c>
+      <c r="J21" s="2">
+        <f>1/K20</f>
+        <v>0.125</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>